--- a/7.Print-Backlog/Sprint-1.xlsx
+++ b/7.Print-Backlog/Sprint-1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Capstone1\7.Print-Backlog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -165,22 +170,7 @@
     <t>total</t>
   </si>
   <si>
-    <t>Tes for Homepage</t>
-  </si>
-  <si>
-    <t>Tes for Login-Logout</t>
-  </si>
-  <si>
-    <t>Tes for remember password</t>
-  </si>
-  <si>
-    <t>Tes for Chat Form</t>
-  </si>
-  <si>
     <t>Tes for Waiting page</t>
-  </si>
-  <si>
-    <t>Tes for Playtime</t>
   </si>
   <si>
     <t>Tran Nguyen Huu Nghia</t>
@@ -194,11 +184,29 @@
   <si>
     <t>Dinh Tran Anh Truc</t>
   </si>
+  <si>
+    <t>Test for Homepage</t>
+  </si>
+  <si>
+    <t>Test for Login-Logout</t>
+  </si>
+  <si>
+    <t>Test for remember password</t>
+  </si>
+  <si>
+    <t>Test for Chat Form</t>
+  </si>
+  <si>
+    <t>Test for Playtime</t>
+  </si>
+  <si>
+    <t>Test for Waiting page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
@@ -526,27 +534,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -558,6 +545,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,7 +585,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -762,7 +770,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2AF8-4A23-9267-01C3C33CDA35}"/>
             </c:ext>
@@ -924,7 +932,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2AF8-4A23-9267-01C3C33CDA35}"/>
             </c:ext>
@@ -938,7 +946,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="204035968"/>
         <c:axId val="204037504"/>
@@ -1072,7 +1079,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1107,7 +1114,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1318,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E2" s="22">
         <v>1</v>
@@ -1516,12 +1523,12 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" s="37">
         <v>1</v>
@@ -1602,7 +1609,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E4" s="37">
         <v>1</v>
@@ -1680,10 +1687,10 @@
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" s="37">
         <v>1</v>
@@ -1759,14 +1766,14 @@
       <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" s="37">
         <v>2</v>
@@ -1842,12 +1849,12 @@
       <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E7" s="37">
         <v>2</v>
@@ -1923,12 +1930,12 @@
       <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E8" s="37">
         <v>1</v>
@@ -2004,12 +2011,12 @@
       <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" s="37">
         <v>5</v>
@@ -2085,12 +2092,12 @@
       <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" s="37">
         <v>1</v>
@@ -2166,12 +2173,12 @@
       <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E11" s="37">
         <v>1</v>
@@ -2247,14 +2254,14 @@
       <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="44" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E12" s="37">
         <v>1</v>
@@ -2330,12 +2337,12 @@
       <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E13" s="37">
         <v>2</v>
@@ -2411,12 +2418,12 @@
       <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E14" s="37">
         <v>1</v>
@@ -2492,12 +2499,12 @@
       <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E15" s="37">
         <v>2</v>
@@ -2573,12 +2580,12 @@
       <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E16" s="37">
         <v>1</v>
@@ -2654,12 +2661,12 @@
       <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17" s="37">
         <v>1</v>
@@ -2735,14 +2742,14 @@
       <c r="A18" s="36">
         <v>17</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E18" s="37">
         <v>2</v>
@@ -2818,12 +2825,12 @@
       <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E19" s="37">
         <v>7</v>
@@ -2899,12 +2906,12 @@
       <c r="A20" s="36">
         <v>19</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E20" s="37">
         <v>5</v>
@@ -2980,12 +2987,12 @@
       <c r="A21" s="36">
         <v>20</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E21" s="37">
         <v>1</v>
@@ -3020,34 +3027,34 @@
       <c r="O21" s="29">
         <v>1</v>
       </c>
-      <c r="P21" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="47">
-        <v>0</v>
-      </c>
-      <c r="R21" s="47">
-        <v>0</v>
-      </c>
-      <c r="S21" s="47">
-        <v>0</v>
-      </c>
-      <c r="T21" s="47">
-        <v>0</v>
-      </c>
-      <c r="U21" s="47">
-        <v>0</v>
-      </c>
-      <c r="V21" s="47">
-        <v>0</v>
-      </c>
-      <c r="W21" s="47">
-        <v>0</v>
-      </c>
-      <c r="X21" s="47">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="47">
+      <c r="P21" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="40">
+        <v>0</v>
+      </c>
+      <c r="R21" s="40">
+        <v>0</v>
+      </c>
+      <c r="S21" s="40">
+        <v>0</v>
+      </c>
+      <c r="T21" s="40">
+        <v>0</v>
+      </c>
+      <c r="U21" s="40">
+        <v>0</v>
+      </c>
+      <c r="V21" s="40">
+        <v>0</v>
+      </c>
+      <c r="W21" s="40">
+        <v>0</v>
+      </c>
+      <c r="X21" s="40">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="40">
         <v>0</v>
       </c>
       <c r="Z21" s="7"/>
@@ -3061,12 +3068,12 @@
       <c r="A22" s="36">
         <v>21</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E22" s="37">
         <v>1</v>
@@ -3142,14 +3149,14 @@
       <c r="A23" s="36">
         <v>22</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E23" s="37">
         <v>3</v>
@@ -3225,12 +3232,12 @@
       <c r="A24" s="36">
         <v>23</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E24" s="37">
         <v>4</v>
@@ -3306,7 +3313,7 @@
       <c r="A25" s="36">
         <v>24</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="13" t="s">
         <v>18</v>
       </c>
@@ -3387,12 +3394,12 @@
       <c r="A26" s="36">
         <v>25</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E26" s="37">
         <v>15</v>
@@ -3468,12 +3475,12 @@
       <c r="A27" s="36">
         <v>26</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E27" s="37">
         <v>1</v>
@@ -3549,12 +3556,12 @@
       <c r="A28" s="36">
         <v>27</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E28" s="37">
         <v>1</v>
@@ -3630,14 +3637,14 @@
       <c r="A29" s="36">
         <v>28</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E29" s="37">
         <v>1</v>
@@ -3713,12 +3720,12 @@
       <c r="A30" s="36">
         <v>29</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E30" s="37">
         <v>2</v>
@@ -3794,12 +3801,12 @@
       <c r="A31" s="36">
         <v>30</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E31" s="37">
         <v>1</v>
@@ -3875,12 +3882,12 @@
       <c r="A32" s="36">
         <v>31</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E32" s="37">
         <v>1</v>
@@ -3956,12 +3963,12 @@
       <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" s="44"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E33" s="37">
         <v>1</v>
@@ -4457,12 +4464,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4473,8 +4480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4593,7 +4600,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E2" s="22">
         <v>1</v>
@@ -4666,12 +4673,12 @@
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" s="28">
         <v>1</v>
@@ -4749,7 +4756,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E4" s="37">
         <v>1</v>
@@ -4824,10 +4831,10 @@
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" s="37">
         <v>1</v>
@@ -4900,14 +4907,14 @@
       <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" s="28">
         <v>2</v>
@@ -4980,12 +4987,12 @@
       <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E7" s="28">
         <v>2</v>
@@ -5058,12 +5065,12 @@
       <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E8" s="28">
         <v>1</v>
@@ -5136,12 +5143,12 @@
       <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" s="28">
         <v>5</v>
@@ -5214,12 +5221,12 @@
       <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" s="37">
         <v>1</v>
@@ -5292,12 +5299,12 @@
       <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E11" s="37">
         <v>1</v>
@@ -5370,14 +5377,14 @@
       <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="44" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E12" s="28">
         <v>1</v>
@@ -5450,12 +5457,12 @@
       <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E13" s="28">
         <v>2</v>
@@ -5528,12 +5535,12 @@
       <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E14" s="28">
         <v>1</v>
@@ -5606,12 +5613,12 @@
       <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E15" s="28">
         <v>2</v>
@@ -5684,12 +5691,12 @@
       <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E16" s="37">
         <v>1</v>
@@ -5697,64 +5704,64 @@
       <c r="F16" s="22">
         <v>1</v>
       </c>
-      <c r="G16" s="45">
-        <v>1</v>
-      </c>
-      <c r="H16" s="45">
-        <v>1</v>
-      </c>
-      <c r="I16" s="45">
-        <v>1</v>
-      </c>
-      <c r="J16" s="46">
-        <v>0</v>
-      </c>
-      <c r="K16" s="45">
-        <v>0</v>
-      </c>
-      <c r="L16" s="45">
-        <v>0</v>
-      </c>
-      <c r="M16" s="45">
-        <v>0</v>
-      </c>
-      <c r="N16" s="45">
-        <v>0</v>
-      </c>
-      <c r="O16" s="45">
-        <v>0</v>
-      </c>
-      <c r="P16" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="45">
-        <v>0</v>
-      </c>
-      <c r="R16" s="45">
-        <v>0</v>
-      </c>
-      <c r="S16" s="45">
-        <v>0</v>
-      </c>
-      <c r="T16" s="45">
-        <v>0</v>
-      </c>
-      <c r="U16" s="45">
-        <v>0</v>
-      </c>
-      <c r="V16" s="45">
-        <v>0</v>
-      </c>
-      <c r="W16" s="45">
-        <v>0</v>
-      </c>
-      <c r="X16" s="45">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="45">
+      <c r="G16" s="38">
+        <v>1</v>
+      </c>
+      <c r="H16" s="38">
+        <v>1</v>
+      </c>
+      <c r="I16" s="38">
+        <v>1</v>
+      </c>
+      <c r="J16" s="39">
+        <v>0</v>
+      </c>
+      <c r="K16" s="38">
+        <v>0</v>
+      </c>
+      <c r="L16" s="38">
+        <v>0</v>
+      </c>
+      <c r="M16" s="38">
+        <v>0</v>
+      </c>
+      <c r="N16" s="38">
+        <v>0</v>
+      </c>
+      <c r="O16" s="38">
+        <v>0</v>
+      </c>
+      <c r="P16" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="38">
+        <v>0</v>
+      </c>
+      <c r="R16" s="38">
+        <v>0</v>
+      </c>
+      <c r="S16" s="38">
+        <v>0</v>
+      </c>
+      <c r="T16" s="38">
+        <v>0</v>
+      </c>
+      <c r="U16" s="38">
+        <v>0</v>
+      </c>
+      <c r="V16" s="38">
+        <v>0</v>
+      </c>
+      <c r="W16" s="38">
+        <v>0</v>
+      </c>
+      <c r="X16" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="38">
         <v>0</v>
       </c>
     </row>
@@ -5762,12 +5769,12 @@
       <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17" s="37">
         <v>1</v>
@@ -5775,64 +5782,64 @@
       <c r="F17" s="22">
         <v>1</v>
       </c>
-      <c r="G17" s="45">
-        <v>1</v>
-      </c>
-      <c r="H17" s="45">
-        <v>1</v>
-      </c>
-      <c r="I17" s="45">
-        <v>1</v>
-      </c>
-      <c r="J17" s="45">
-        <v>1</v>
-      </c>
-      <c r="K17" s="45">
-        <v>1</v>
-      </c>
-      <c r="L17" s="45">
-        <v>1</v>
-      </c>
-      <c r="M17" s="45">
-        <v>1</v>
-      </c>
-      <c r="N17" s="45">
-        <v>1</v>
-      </c>
-      <c r="O17" s="45">
-        <v>1</v>
-      </c>
-      <c r="P17" s="45">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="45">
-        <v>1</v>
-      </c>
-      <c r="R17" s="45">
-        <v>1</v>
-      </c>
-      <c r="S17" s="45">
-        <v>1</v>
-      </c>
-      <c r="T17" s="45">
-        <v>1</v>
-      </c>
-      <c r="U17" s="45">
-        <v>1</v>
-      </c>
-      <c r="V17" s="45">
-        <v>1</v>
-      </c>
-      <c r="W17" s="45">
-        <v>1</v>
-      </c>
-      <c r="X17" s="45">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="45">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="45">
+      <c r="G17" s="38">
+        <v>1</v>
+      </c>
+      <c r="H17" s="38">
+        <v>1</v>
+      </c>
+      <c r="I17" s="38">
+        <v>1</v>
+      </c>
+      <c r="J17" s="38">
+        <v>1</v>
+      </c>
+      <c r="K17" s="38">
+        <v>1</v>
+      </c>
+      <c r="L17" s="38">
+        <v>1</v>
+      </c>
+      <c r="M17" s="38">
+        <v>1</v>
+      </c>
+      <c r="N17" s="38">
+        <v>1</v>
+      </c>
+      <c r="O17" s="38">
+        <v>1</v>
+      </c>
+      <c r="P17" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>1</v>
+      </c>
+      <c r="R17" s="38">
+        <v>1</v>
+      </c>
+      <c r="S17" s="38">
+        <v>1</v>
+      </c>
+      <c r="T17" s="38">
+        <v>1</v>
+      </c>
+      <c r="U17" s="38">
+        <v>1</v>
+      </c>
+      <c r="V17" s="38">
+        <v>1</v>
+      </c>
+      <c r="W17" s="38">
+        <v>1</v>
+      </c>
+      <c r="X17" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="38">
         <v>1</v>
       </c>
     </row>
@@ -5840,14 +5847,14 @@
       <c r="A18" s="36">
         <v>17</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
@@ -5920,12 +5927,12 @@
       <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E19" s="28">
         <v>7</v>
@@ -5998,12 +6005,12 @@
       <c r="A20" s="36">
         <v>19</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E20" s="28">
         <v>5</v>
@@ -6076,12 +6083,12 @@
       <c r="A21" s="36">
         <v>20</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E21" s="37">
         <v>1</v>
@@ -6154,12 +6161,12 @@
       <c r="A22" s="36">
         <v>21</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E22" s="37">
         <v>1</v>
@@ -6232,14 +6239,14 @@
       <c r="A23" s="36">
         <v>22</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E23" s="28">
         <v>3</v>
@@ -6312,12 +6319,12 @@
       <c r="A24" s="36">
         <v>23</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E24" s="28">
         <v>4</v>
@@ -6390,7 +6397,7 @@
       <c r="A25" s="36">
         <v>24</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="13" t="s">
         <v>18</v>
       </c>
@@ -6468,12 +6475,12 @@
       <c r="A26" s="36">
         <v>25</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E26" s="28">
         <v>15</v>
@@ -6546,12 +6553,12 @@
       <c r="A27" s="36">
         <v>26</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E27" s="37">
         <v>1</v>
@@ -6624,12 +6631,12 @@
       <c r="A28" s="36">
         <v>27</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E28" s="37">
         <v>1</v>
@@ -6702,14 +6709,14 @@
       <c r="A29" s="36">
         <v>28</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E29" s="28">
         <v>1</v>
@@ -6782,12 +6789,12 @@
       <c r="A30" s="36">
         <v>29</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E30" s="28">
         <v>2</v>
@@ -6860,12 +6867,12 @@
       <c r="A31" s="36">
         <v>30</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E31" s="28">
         <v>1</v>
@@ -6938,12 +6945,12 @@
       <c r="A32" s="36">
         <v>31</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E32" s="37">
         <v>1</v>
@@ -7016,12 +7023,12 @@
       <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" s="44"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E33" s="37">
         <v>1</v>
@@ -7405,8 +7412,8 @@
     <row r="38" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="41"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28" t="s">
         <v>13</v>

--- a/7.Print-Backlog/Sprint-1.xlsx
+++ b/7.Print-Backlog/Sprint-1.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Capstone1\7.Print-Backlog\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -39,9 +34,6 @@
   </si>
   <si>
     <t>Design user interface of Home page</t>
-  </si>
-  <si>
-    <t>Đỗ Văn Trường</t>
   </si>
   <si>
     <t>Design Test Case for Homepage</t>
@@ -170,9 +162,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>Tes for Waiting page</t>
-  </si>
-  <si>
     <t>Tran Nguyen Huu Nghia</t>
   </si>
   <si>
@@ -202,11 +191,14 @@
   <si>
     <t>Test for Waiting page</t>
   </si>
+  <si>
+    <t>Code front-end for playtime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
@@ -425,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -547,12 +539,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,11 +547,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +586,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -770,7 +771,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2AF8-4A23-9267-01C3C33CDA35}"/>
             </c:ext>
@@ -932,7 +933,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2AF8-4A23-9267-01C3C33CDA35}"/>
             </c:ext>
@@ -946,12 +947,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204035968"/>
-        <c:axId val="204037504"/>
+        <c:axId val="204557312"/>
+        <c:axId val="33948416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="204035968"/>
+        <c:axId val="204557312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -961,14 +963,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204037504"/>
+        <c:crossAx val="33948416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="204037504"/>
+        <c:axId val="33948416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,7 +981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204035968"/>
+        <c:crossAx val="204557312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1079,7 +1081,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1114,7 +1116,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1325,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A24" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,8 +1345,7 @@
     <col min="15" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" customWidth="1"/>
-    <col min="20" max="21" width="12.85546875" customWidth="1"/>
+    <col min="19" max="21" width="12.85546875" customWidth="1"/>
     <col min="22" max="22" width="12.5703125" customWidth="1"/>
     <col min="23" max="25" width="13" customWidth="1"/>
     <col min="26" max="26" width="12.85546875" customWidth="1"/>
@@ -1360,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1442,12 +1443,12 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="22">
         <v>1</v>
@@ -1519,13 +1520,13 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
     </row>
-    <row r="3" spans="1:31" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="13" t="s">
-        <v>17</v>
+      <c r="B3" s="46"/>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>45</v>
@@ -1600,16 +1601,16 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
     </row>
-    <row r="4" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <v>3</v>
       </c>
       <c r="B4" s="35"/>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="37">
         <v>1</v>
@@ -1687,10 +1688,10 @@
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="37">
         <v>1</v>
@@ -1766,14 +1767,14 @@
       <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="37">
         <v>2</v>
@@ -1849,12 +1850,12 @@
       <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="37">
         <v>2</v>
@@ -1926,15 +1927,15 @@
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
     </row>
-    <row r="8" spans="1:31" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="37">
@@ -2011,12 +2012,12 @@
       <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="37">
         <v>5</v>
@@ -2088,16 +2089,16 @@
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
     </row>
-    <row r="10" spans="1:31" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
+      <c r="B10" s="43"/>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="37">
         <v>1</v>
@@ -2173,12 +2174,12 @@
       <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="37">
         <v>1</v>
@@ -2254,14 +2255,14 @@
       <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>32</v>
+      <c r="B12" s="42" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="37">
         <v>1</v>
@@ -2337,12 +2338,12 @@
       <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="37">
         <v>2</v>
@@ -2414,13 +2415,13 @@
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
     </row>
-    <row r="14" spans="1:31" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="13" t="s">
-        <v>38</v>
+      <c r="B14" s="43"/>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>45</v>
@@ -2499,12 +2500,12 @@
       <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>46</v>
+      <c r="D15" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="37">
         <v>2</v>
@@ -2576,16 +2577,16 @@
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
     </row>
-    <row r="16" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>47</v>
+      <c r="B16" s="43"/>
+      <c r="C16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="37">
         <v>1</v>
@@ -2661,12 +2662,12 @@
       <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="37">
         <v>1</v>
@@ -2742,14 +2743,14 @@
       <c r="A18" s="36">
         <v>17</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>33</v>
+      <c r="B18" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="37">
         <v>2</v>
@@ -2821,16 +2822,16 @@
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
     </row>
-    <row r="19" spans="1:31" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="13" t="s">
-        <v>39</v>
+      <c r="B19" s="43"/>
+      <c r="C19" s="50" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="37">
         <v>7</v>
@@ -2902,16 +2903,16 @@
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
     </row>
-    <row r="20" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>19</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="16" t="s">
-        <v>40</v>
+      <c r="B20" s="43"/>
+      <c r="C20" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="37">
         <v>5</v>
@@ -2987,12 +2988,12 @@
       <c r="A21" s="36">
         <v>20</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
+      <c r="B21" s="43"/>
+      <c r="C21" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E21" s="37">
         <v>1</v>
@@ -3064,16 +3065,16 @@
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
     </row>
-    <row r="22" spans="1:31" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>21</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>48</v>
+      <c r="B22" s="44"/>
+      <c r="C22" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="E22" s="37">
         <v>1</v>
@@ -3149,14 +3150,14 @@
       <c r="A23" s="36">
         <v>22</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>34</v>
+      <c r="B23" s="42" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="37">
         <v>3</v>
@@ -3232,12 +3233,12 @@
       <c r="A24" s="36">
         <v>23</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="37">
         <v>4</v>
@@ -3309,16 +3310,16 @@
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
     </row>
-    <row r="25" spans="1:31" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>24</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>6</v>
+      <c r="B25" s="43"/>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E25" s="37">
         <v>2</v>
@@ -3394,12 +3395,12 @@
       <c r="A26" s="36">
         <v>25</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E26" s="37">
         <v>15</v>
@@ -3471,16 +3472,16 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
     </row>
-    <row r="27" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36">
         <v>26</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="3" t="s">
-        <v>22</v>
+      <c r="B27" s="43"/>
+      <c r="C27" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E27" s="37">
         <v>1</v>
@@ -3556,12 +3557,12 @@
       <c r="A28" s="36">
         <v>27</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="37">
         <v>1</v>
@@ -3637,14 +3638,14 @@
       <c r="A29" s="36">
         <v>28</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>35</v>
+      <c r="B29" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="37">
         <v>1</v>
@@ -3716,15 +3717,15 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
     </row>
-    <row r="30" spans="1:31" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>29</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="B30" s="43"/>
+      <c r="C30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="49" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="37">
@@ -3797,16 +3798,16 @@
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
     </row>
-    <row r="31" spans="1:31" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36">
         <v>30</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>45</v>
+      <c r="B31" s="43"/>
+      <c r="C31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E31" s="37">
         <v>1</v>
@@ -3882,12 +3883,12 @@
       <c r="A32" s="36">
         <v>31</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="12" t="s">
-        <v>24</v>
+      <c r="B32" s="43"/>
+      <c r="C32" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E32" s="37">
         <v>1</v>
@@ -3959,16 +3960,16 @@
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
     </row>
-    <row r="33" spans="1:31" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>48</v>
+      <c r="B33" s="44"/>
+      <c r="C33" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="E33" s="37">
         <v>1</v>
@@ -4046,10 +4047,10 @@
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="E34" s="20">
         <v>1</v>
@@ -4127,10 +4128,10 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="20">
         <v>1</v>
@@ -4208,10 +4209,10 @@
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" s="20">
         <v>1</v>
@@ -4289,10 +4290,10 @@
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="20">
         <v>1</v>
@@ -4369,7 +4370,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="4"/>
       <c r="D38" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2">
         <f>SUM(E2:E37)</f>
@@ -4480,8 +4481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4516,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -4595,12 +4596,12 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="22">
         <v>1</v>
@@ -4669,13 +4670,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="13" t="s">
-        <v>17</v>
+      <c r="B3" s="46"/>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>45</v>
@@ -4747,16 +4748,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <v>3</v>
       </c>
       <c r="B4" s="35"/>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="37">
         <v>1</v>
@@ -4831,10 +4832,10 @@
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="37">
         <v>1</v>
@@ -4907,14 +4908,14 @@
       <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="28">
         <v>2</v>
@@ -4987,12 +4988,12 @@
       <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="28">
         <v>2</v>
@@ -5061,15 +5062,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="28">
@@ -5143,12 +5144,12 @@
       <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="28">
         <v>5</v>
@@ -5217,16 +5218,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
+      <c r="B10" s="43"/>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="37">
         <v>1</v>
@@ -5299,12 +5300,12 @@
       <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="37">
         <v>1</v>
@@ -5377,14 +5378,14 @@
       <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>32</v>
+      <c r="B12" s="42" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="28">
         <v>1</v>
@@ -5457,12 +5458,12 @@
       <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="28">
         <v>2</v>
@@ -5531,13 +5532,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="13" t="s">
-        <v>38</v>
+      <c r="B14" s="43"/>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>45</v>
@@ -5613,12 +5614,12 @@
       <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>46</v>
+      <c r="D15" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="28">
         <v>2</v>
@@ -5687,16 +5688,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>47</v>
+      <c r="B16" s="43"/>
+      <c r="C16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="37">
         <v>1</v>
@@ -5769,12 +5770,12 @@
       <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="37">
         <v>1</v>
@@ -5847,14 +5848,14 @@
       <c r="A18" s="36">
         <v>17</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>33</v>
+      <c r="B18" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
@@ -5923,16 +5924,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="13" t="s">
-        <v>39</v>
+      <c r="B19" s="43"/>
+      <c r="C19" s="50" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="28">
         <v>7</v>
@@ -6001,16 +6002,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>19</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="16" t="s">
-        <v>40</v>
+      <c r="B20" s="43"/>
+      <c r="C20" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="28">
         <v>5</v>
@@ -6083,12 +6084,12 @@
       <c r="A21" s="36">
         <v>20</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
+      <c r="B21" s="43"/>
+      <c r="C21" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E21" s="37">
         <v>1</v>
@@ -6157,16 +6158,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>21</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>48</v>
+      <c r="B22" s="44"/>
+      <c r="C22" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="E22" s="37">
         <v>1</v>
@@ -6239,14 +6240,14 @@
       <c r="A23" s="36">
         <v>22</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>34</v>
+      <c r="B23" s="42" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="28">
         <v>3</v>
@@ -6319,12 +6320,12 @@
       <c r="A24" s="36">
         <v>23</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="28">
         <v>4</v>
@@ -6393,16 +6394,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>24</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>6</v>
+      <c r="B25" s="43"/>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E25" s="28">
         <v>2</v>
@@ -6475,12 +6476,12 @@
       <c r="A26" s="36">
         <v>25</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E26" s="28">
         <v>15</v>
@@ -6549,16 +6550,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36">
         <v>26</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="3" t="s">
-        <v>22</v>
+      <c r="B27" s="43"/>
+      <c r="C27" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E27" s="37">
         <v>1</v>
@@ -6631,12 +6632,12 @@
       <c r="A28" s="36">
         <v>27</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="37">
         <v>1</v>
@@ -6709,14 +6710,14 @@
       <c r="A29" s="36">
         <v>28</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>35</v>
+      <c r="B29" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="28">
         <v>1</v>
@@ -6785,15 +6786,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>29</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="B30" s="43"/>
+      <c r="C30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="49" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="28">
@@ -6863,16 +6864,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36">
         <v>30</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>45</v>
+      <c r="B31" s="43"/>
+      <c r="C31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E31" s="28">
         <v>1</v>
@@ -6945,12 +6946,12 @@
       <c r="A32" s="36">
         <v>31</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="12" t="s">
-        <v>24</v>
+      <c r="B32" s="43"/>
+      <c r="C32" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E32" s="37">
         <v>1</v>
@@ -7019,16 +7020,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>48</v>
+      <c r="B33" s="44"/>
+      <c r="C33" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="E33" s="37">
         <v>1</v>
@@ -7103,10 +7104,10 @@
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="E34" s="28">
         <v>1</v>
@@ -7181,10 +7182,10 @@
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="28">
         <v>1</v>
@@ -7259,10 +7260,10 @@
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" s="28">
         <v>1</v>
@@ -7337,10 +7338,10 @@
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="28">
         <v>1</v>
@@ -7416,7 +7417,7 @@
       <c r="D38" s="48"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="26">
         <v>76</v>

--- a/7.Print-Backlog/Sprint-1.xlsx
+++ b/7.Print-Backlog/Sprint-1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -194,6 +194,18 @@
   <si>
     <t>Code front-end for playtime</t>
   </si>
+  <si>
+    <t>Nghia</t>
+  </si>
+  <si>
+    <t>Oanh</t>
+  </si>
+  <si>
+    <t>Truc</t>
+  </si>
+  <si>
+    <t>Truong</t>
+  </si>
 </sst>
 </file>
 
@@ -202,7 +214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +233,12 @@
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444950"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -417,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -538,6 +556,15 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,15 +586,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,11 +969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204557312"/>
-        <c:axId val="33948416"/>
+        <c:axId val="201721728"/>
+        <c:axId val="201723264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="204557312"/>
+        <c:axId val="201721728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,14 +983,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33948416"/>
+        <c:crossAx val="201723264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="33948416"/>
+        <c:axId val="201723264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,7 +1001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204557312"/>
+        <c:crossAx val="201721728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1443,7 +1463,7 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1544,7 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
@@ -1767,7 +1787,7 @@
       <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -1850,7 +1870,7 @@
       <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="13" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +1951,7 @@
       <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
@@ -2012,7 +2032,7 @@
       <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
@@ -2093,7 +2113,7 @@
       <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
@@ -2174,7 +2194,7 @@
       <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>48</v>
       </c>
@@ -2255,7 +2275,7 @@
       <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="45" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2338,7 +2358,7 @@
       <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="13" t="s">
         <v>35</v>
       </c>
@@ -2419,7 +2439,7 @@
       <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
@@ -2500,7 +2520,7 @@
       <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="13" t="s">
         <v>37</v>
       </c>
@@ -2581,7 +2601,7 @@
       <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
@@ -2662,7 +2682,7 @@
       <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>49</v>
       </c>
@@ -2743,7 +2763,7 @@
       <c r="A18" s="36">
         <v>17</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="45" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2826,8 +2846,8 @@
       <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="50" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -2907,7 +2927,7 @@
       <c r="A20" s="36">
         <v>19</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="13" t="s">
         <v>38</v>
       </c>
@@ -2988,7 +3008,7 @@
       <c r="A21" s="36">
         <v>20</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
@@ -3069,11 +3089,11 @@
       <c r="A22" s="36">
         <v>21</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="51" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="42" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="37">
@@ -3150,7 +3170,7 @@
       <c r="A23" s="36">
         <v>22</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -3233,7 +3253,7 @@
       <c r="A24" s="36">
         <v>23</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13" t="s">
         <v>41</v>
       </c>
@@ -3314,7 +3334,7 @@
       <c r="A25" s="36">
         <v>24</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
@@ -3395,7 +3415,7 @@
       <c r="A26" s="36">
         <v>25</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="13" t="s">
         <v>17</v>
       </c>
@@ -3476,7 +3496,7 @@
       <c r="A27" s="36">
         <v>26</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="13" t="s">
         <v>18</v>
       </c>
@@ -3557,7 +3577,7 @@
       <c r="A28" s="36">
         <v>27</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
@@ -3638,7 +3658,7 @@
       <c r="A29" s="36">
         <v>28</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -3721,11 +3741,11 @@
       <c r="A30" s="36">
         <v>29</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="42" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="37">
@@ -3802,7 +3822,7 @@
       <c r="A31" s="36">
         <v>30</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="13" t="s">
         <v>53</v>
       </c>
@@ -3883,7 +3903,7 @@
       <c r="A32" s="36">
         <v>31</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="16" t="s">
         <v>19</v>
       </c>
@@ -3964,11 +3984,11 @@
       <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="51" t="s">
+      <c r="B33" s="47"/>
+      <c r="C33" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="42" t="s">
         <v>46</v>
       </c>
       <c r="E33" s="37">
@@ -4479,10 +4499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4596,7 +4616,7 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
@@ -4674,7 +4694,7 @@
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
@@ -4908,7 +4928,7 @@
       <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -4988,7 +5008,7 @@
       <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="13" t="s">
         <v>27</v>
       </c>
@@ -5066,7 +5086,7 @@
       <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
@@ -5144,7 +5164,7 @@
       <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
@@ -5222,7 +5242,7 @@
       <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
@@ -5300,7 +5320,7 @@
       <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13" t="s">
         <v>48</v>
       </c>
@@ -5378,7 +5398,7 @@
       <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="45" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -5458,7 +5478,7 @@
       <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="13" t="s">
         <v>35</v>
       </c>
@@ -5536,7 +5556,7 @@
       <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
@@ -5614,7 +5634,7 @@
       <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="13" t="s">
         <v>37</v>
       </c>
@@ -5692,7 +5712,7 @@
       <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
@@ -5770,7 +5790,7 @@
       <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>49</v>
       </c>
@@ -5848,7 +5868,7 @@
       <c r="A18" s="36">
         <v>17</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="45" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5928,8 +5948,8 @@
       <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="50" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -6006,7 +6026,7 @@
       <c r="A20" s="36">
         <v>19</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="13" t="s">
         <v>38</v>
       </c>
@@ -6084,7 +6104,7 @@
       <c r="A21" s="36">
         <v>20</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
@@ -6162,11 +6182,11 @@
       <c r="A22" s="36">
         <v>21</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="51" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="42" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="37">
@@ -6240,7 +6260,7 @@
       <c r="A23" s="36">
         <v>22</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -6320,7 +6340,7 @@
       <c r="A24" s="36">
         <v>23</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13" t="s">
         <v>41</v>
       </c>
@@ -6398,7 +6418,7 @@
       <c r="A25" s="36">
         <v>24</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
@@ -6476,7 +6496,7 @@
       <c r="A26" s="36">
         <v>25</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="13" t="s">
         <v>17</v>
       </c>
@@ -6554,7 +6574,7 @@
       <c r="A27" s="36">
         <v>26</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="13" t="s">
         <v>18</v>
       </c>
@@ -6632,7 +6652,7 @@
       <c r="A28" s="36">
         <v>27</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
@@ -6710,7 +6730,7 @@
       <c r="A29" s="36">
         <v>28</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -6790,11 +6810,11 @@
       <c r="A30" s="36">
         <v>29</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="42" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="28">
@@ -6868,7 +6888,7 @@
       <c r="A31" s="36">
         <v>30</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="13" t="s">
         <v>53</v>
       </c>
@@ -6946,7 +6966,7 @@
       <c r="A32" s="36">
         <v>31</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="16" t="s">
         <v>19</v>
       </c>
@@ -7024,11 +7044,11 @@
       <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="51" t="s">
+      <c r="B33" s="47"/>
+      <c r="C33" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="42" t="s">
         <v>46</v>
       </c>
       <c r="E33" s="37">
@@ -7413,8 +7433,8 @@
     <row r="38" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28" t="s">
         <v>12</v>
@@ -7568,6 +7588,42 @@
       <c r="Z39" s="29">
         <f t="shared" si="0"/>
         <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="53">
+        <f>SUMIF(D2:D37,D2,F2:F37)+SUMIF(D2:D37,D34,F2:F37)/4</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="53">
+        <f>SUMIF(D2:D37,D3,F2:F37)+SUMIF(D3:D38,D34,F3:F38)/4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="53">
+        <f>SUMIF(D2:D37,D8,F2:F37)+SUMIF(D2:D37,D34,F2:F37)/4</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="53">
+        <f>SUMIF(D2:D37,D9,F2:F37)+SUMIF(D2:D37,D34,F2:F37)/4</f>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
